--- a/output/vendasFiltro.xlsx
+++ b/output/vendasFiltro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohann Fredd\Documents\UiPath\prj_primeiroProjeto\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CDF247-5C9B-4E3A-8C1E-66272396FCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2616B46-7417-4C24-BC6D-D782E5E2CB7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24930" yWindow="4305" windowWidth="15375" windowHeight="7875" xr2:uid="{C9D20F19-C106-4A51-B432-9936848CBCDD}"/>
   </bookViews>
